--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-07_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-07_end.xlsx
@@ -956,7 +956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  Your idea of "high-class" is very different from mine.
+    <t xml:space="preserve">[name="Ch'en"]  Your idea of 'high-class' is very different from mine.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-07_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-07_end.xlsx
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   7:40 PM \ Overcast
+    <t xml:space="preserve">[name=""]   7:40 P.M. \ Overcast
 </t>
   </si>
   <si>
